--- a/real_data/resnet101.xlsx
+++ b/real_data/resnet101.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/real data benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4B092-DBB1-CD4E-A926-5CE92F982D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBB9B5-911F-EC4B-A9D0-E0A00A3F2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{7935258D-7BA1-BE4D-B533-9C0418764F7B}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="3" xr2:uid="{7935258D-7BA1-BE4D-B533-9C0418764F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="d2" sheetId="3" r:id="rId4"/>
     <sheet name="memory" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3907375A-5822-0A45-92DF-EC04FBC81381}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>3.2307700000000001</v>
       </c>
@@ -416,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.30769</v>
       </c>
@@ -427,7 +423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6.61538</v>
       </c>
@@ -438,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6.61538</v>
       </c>
@@ -449,7 +445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6.5384599999999997</v>
       </c>
@@ -460,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7.61538</v>
       </c>
@@ -471,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6.61538</v>
       </c>
@@ -481,8 +477,12 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f>SUM(A6:A33)</f>
+        <v>252.53844000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.61538</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6.61538</v>
       </c>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10.0769</v>
       </c>
@@ -515,7 +515,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8.7692300000000003</v>
       </c>
@@ -526,7 +526,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8.7692300000000003</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8.7692300000000003</v>
       </c>
@@ -548,7 +548,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8.7692300000000003</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8.6923100000000009</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1.0769200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8.9230800000000006</v>
       </c>
@@ -819,12 +819,426 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF728E79-D3DB-1040-8D51-06514020BC7B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>34.153799999999997</v>
+      </c>
+      <c r="B1">
+        <v>9.2786899999999992</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3.2307700000000001</v>
+      </c>
+      <c r="B2">
+        <v>1.0163899999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13.307700000000001</v>
+      </c>
+      <c r="B3">
+        <v>32.901600000000002</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13.2308</v>
+      </c>
+      <c r="B4">
+        <v>33.278700000000001</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13.461499999999999</v>
+      </c>
+      <c r="B5">
+        <v>33.540999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>77.230800000000002</v>
+      </c>
+      <c r="B6">
+        <v>30.8689</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>SUM(A6:A33)</f>
+        <v>1810.30827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7.7692300000000003</v>
+      </c>
+      <c r="B7">
+        <v>25.147500000000001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7.5384599999999997</v>
+      </c>
+      <c r="B8">
+        <v>25.0656</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.9230799999999997</v>
+      </c>
+      <c r="B9">
+        <v>25.295100000000001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>239.46199999999999</v>
+      </c>
+      <c r="B10">
+        <v>46.5246</v>
+      </c>
+      <c r="C10">
+        <v>0.34426200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20.461500000000001</v>
+      </c>
+      <c r="B11">
+        <v>44.1967</v>
+      </c>
+      <c r="C11">
+        <v>8.1967200000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>44.180300000000003</v>
+      </c>
+      <c r="C12">
+        <v>6.5573800000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19.8462</v>
+      </c>
+      <c r="B13">
+        <v>43.540999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.163934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>43.983600000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.13114799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20.230799999999999</v>
+      </c>
+      <c r="B15">
+        <v>43.901600000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.18032799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>43.819699999999997</v>
+      </c>
+      <c r="C16">
+        <v>3.2786900000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20.076899999999998</v>
+      </c>
+      <c r="B17">
+        <v>43.754100000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.163934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21.307700000000001</v>
+      </c>
+      <c r="B18">
+        <v>43.721299999999999</v>
+      </c>
+      <c r="C18">
+        <v>8.1967200000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20.1538</v>
+      </c>
+      <c r="B19">
+        <v>43.721299999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.19672100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20.615400000000001</v>
+      </c>
+      <c r="B20">
+        <v>43.688499999999998</v>
+      </c>
+      <c r="C20">
+        <v>4.9180300000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21.692299999999999</v>
+      </c>
+      <c r="B21">
+        <v>43.409799999999997</v>
+      </c>
+      <c r="C21">
+        <v>3.2786900000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22.384599999999999</v>
+      </c>
+      <c r="B22">
+        <v>43.655700000000003</v>
+      </c>
+      <c r="C22">
+        <v>9.8360699999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22.1538</v>
+      </c>
+      <c r="B23">
+        <v>43.6066</v>
+      </c>
+      <c r="C23">
+        <v>0.13114799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21.769200000000001</v>
+      </c>
+      <c r="B24">
+        <v>43.639299999999999</v>
+      </c>
+      <c r="C24">
+        <v>9.8360699999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21.923100000000002</v>
+      </c>
+      <c r="B25">
+        <v>43.508200000000002</v>
+      </c>
+      <c r="C25">
+        <v>8.1967200000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21.615400000000001</v>
+      </c>
+      <c r="B26">
+        <v>43.852499999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.163934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21.923100000000002</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>0.163934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24.307700000000001</v>
+      </c>
+      <c r="B28">
+        <v>44.868899999999996</v>
+      </c>
+      <c r="C28">
+        <v>4.9180300000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>47.229500000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.14754100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28.230799999999999</v>
+      </c>
+      <c r="B30">
+        <v>49.1967</v>
+      </c>
+      <c r="C30">
+        <v>0.24590200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30.076899999999998</v>
+      </c>
+      <c r="B31">
+        <v>50.819699999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.19672100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>34.461500000000001</v>
+      </c>
+      <c r="B32">
+        <v>55.622999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.29508200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>972.154</v>
+      </c>
+      <c r="B33">
+        <v>133.08199999999999</v>
+      </c>
+      <c r="C33">
+        <v>3.3442599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>68.384600000000006</v>
+      </c>
+      <c r="B34">
+        <v>136.148</v>
+      </c>
+      <c r="C34">
+        <v>3.2131099999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>70.692300000000003</v>
+      </c>
+      <c r="B35">
+        <v>144.68899999999999</v>
+      </c>
+      <c r="C35">
+        <v>3.19672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -834,7 +1248,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,13 +1667,424 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCCCD9C-B55F-B540-99FD-13E476D49529}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>318</v>
+      </c>
+      <c r="B3" s="1">
+        <v>303</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2075</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4514</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>776</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25770</v>
+      </c>
+      <c r="C7" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9117</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14890</v>
+      </c>
+      <c r="C34" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>19200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15755</v>
+      </c>
+      <c r="C35" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/real_data/resnet101.xlsx
+++ b/real_data/resnet101.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBB9B5-911F-EC4B-A9D0-E0A00A3F2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83043816-0854-3342-A28D-E8BE9CE4C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="3" xr2:uid="{7935258D-7BA1-BE4D-B533-9C0418764F7B}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>19200</v>
+        <v>1920</v>
       </c>
       <c r="B35" s="1">
         <v>15755</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
         <v>21</v>
